--- a/documentation/project2_worklog.xlsx
+++ b/documentation/project2_worklog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kansas-my.sharepoint.com/personal/l495p005_home_ku_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landon\Desktop\EECS 581\Project_2\EECS-581-Project-2\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EFFF341-288B-4F8F-AEB8-D3299E47EBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA60CAF-953D-42D9-8EE6-8EF2E3DB8944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{016D3725-BEF8-41FD-9F88-E735BA5F306E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Log Number</t>
   </si>
@@ -108,13 +108,34 @@
   </si>
   <si>
     <t>Scanned through code. Helped Kai resolve conflicts. Started updating the worklog file. Planning to look at medium difficulty</t>
+  </si>
+  <si>
+    <t>Landon, Aiden, Andrew</t>
+  </si>
+  <si>
+    <t>Added all comments to ai shooting behavior code</t>
+  </si>
+  <si>
+    <t>Discussed ship difficulty logic</t>
+  </si>
+  <si>
+    <t>Overwrote get_input in AI class to just return coordinate from aiTurn. Added gameloop logic so that you can actually play against AI now. Seems that at least easy mode is working, haven't had a chance to test other modes</t>
+  </si>
+  <si>
+    <t>Changed AI class to inherit Player so that functions aren't being recreated. Overwrote some functions from Player and GameObject to fit the AI better. Ship placement logic may be done but hasn't been tested and isn't optimized since it's always randomizing without knowledge of previous ship placements or board boundaries and instead error checks each time. Started to modify __take_turn() to take in coordinates from aiTurn but still needs a lot of attention. Waiting for Andrew to push comments on aiTurn function before I start messing with it so that merge conflicts are avoided</t>
+  </si>
+  <si>
+    <t>Cleaned some more code and implemented medium and hard difficulty for the AI</t>
+  </si>
+  <si>
+    <t>Made better transitions between Player -&gt; Player and Player -&gt; AI based off of input buffer instead of waiting. Spent a lot of time stress testing with different combinations of AI difficulties, ship amounts, ship directions, and super shot. Updated worklog to be up to date.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,18 +519,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD21634D-05D0-4FC5-8519-ABDDC6FAB35E}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -549,7 +570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -569,7 +590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -589,7 +610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -609,7 +630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -629,7 +650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -649,7 +670,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -669,7 +690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -689,7 +710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -709,7 +730,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -729,79 +750,181 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="3:3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45562</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>40</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2">
+        <v>45563</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45563</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45563</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2">
+        <v>45563</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>30</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2">
+        <v>45563</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="3:3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="3:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="3:3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="3:3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="3:3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="3:3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="2"/>
     </row>
   </sheetData>
@@ -811,23 +934,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="5a59c2ea-6c19-4a10-8ede-52039d141628" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100719F37FE48B01A409F32F6E741AFC455" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d86eaf982ccaec4dc1560e6acaea1cbb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5a59c2ea-6c19-4a10-8ede-52039d141628" xmlns:ns4="ed461fce-0a4d-4919-9b1a-aacc4f02b5ed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c0de1d84ec3d20b6822b8daf3c3b0c0c" ns3:_="" ns4:_="">
     <xsd:import namespace="5a59c2ea-6c19-4a10-8ede-52039d141628"/>
@@ -1036,14 +1142,56 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="5a59c2ea-6c19-4a10-8ede-52039d141628" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2621EC10-4799-4EF7-8A1D-5D359CF7A094}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96372B58-5A9A-470A-BF06-01A11DFFCB26}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5a59c2ea-6c19-4a10-8ede-52039d141628"/>
+    <ds:schemaRef ds:uri="ed461fce-0a4d-4919-9b1a-aacc4f02b5ed"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9007B3CB-C24B-48DB-9B05-ADDED9763589}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9007B3CB-C24B-48DB-9B05-ADDED9763589}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96372B58-5A9A-470A-BF06-01A11DFFCB26}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2621EC10-4799-4EF7-8A1D-5D359CF7A094}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5a59c2ea-6c19-4a10-8ede-52039d141628"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/project2_worklog.xlsx
+++ b/documentation/project2_worklog.xlsx
@@ -1,161 +1,178 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landon\Desktop\EECS 581\Project_2\EECS-581-Project-2\documentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA60CAF-953D-42D9-8EE6-8EF2E3DB8944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{016D3725-BEF8-41FD-9F88-E735BA5F306E}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
-  <si>
-    <t>Log Number</t>
-  </si>
-  <si>
-    <t>Team Member</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Hours</t>
-  </si>
-  <si>
-    <t>Minutes</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Aiden Patel</t>
-  </si>
-  <si>
-    <t>create forked repo for project 2 and set 'project-2' as default branch. Hopefully blocked modifications to 'main' branch but I'll validate that later</t>
-  </si>
-  <si>
-    <t>Team</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+  <si>
+    <t xml:space="preserve">Log Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aiden Patel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create forked repo for project 2 and set 'project-2' as default branch. Hopefully blocked modifications to 'main' branch but I'll validate that later</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aiden Patel, Andrew McFerrin, John Newman, Kai Achen, Landon Pyko</t>
   </si>
   <si>
     <t xml:space="preserve">scan through code to understand. make list of known bugs. diagram supershot. outlined tasks. create time estimate, fixed ship intersect issue </t>
   </si>
   <si>
-    <t>Aiden, Andrew, Kai, Landon</t>
+    <t xml:space="preserve">Aiden Patel, Andrew, Kai, Landon</t>
   </si>
   <si>
     <t xml:space="preserve">GTA team meeting, discussed supershot and AI method and how to break up work </t>
   </si>
   <si>
-    <t>Andrew</t>
-  </si>
-  <si>
-    <t>started work on ai behavior</t>
-  </si>
-  <si>
-    <t>Aiden</t>
-  </si>
-  <si>
-    <t>Implemented super shot and added terminal clears so that players can't see each others' boards</t>
-  </si>
-  <si>
-    <t>Fixed some logic in the medium difficulty ai</t>
-  </si>
-  <si>
-    <t>Aiden and Andrew</t>
-  </si>
-  <si>
-    <t>talked through AI logic and improved some logic</t>
-  </si>
-  <si>
-    <t>Kai</t>
-  </si>
-  <si>
-    <t>added board construction and shooting functions to AI class</t>
-  </si>
-  <si>
-    <t>resolved some merge conflicts</t>
-  </si>
-  <si>
-    <t>Landon</t>
-  </si>
-  <si>
-    <t>Scanned through code. Helped Kai resolve conflicts. Started updating the worklog file. Planning to look at medium difficulty</t>
-  </si>
-  <si>
-    <t>Landon, Aiden, Andrew</t>
-  </si>
-  <si>
-    <t>Added all comments to ai shooting behavior code</t>
-  </si>
-  <si>
-    <t>Discussed ship difficulty logic</t>
-  </si>
-  <si>
-    <t>Overwrote get_input in AI class to just return coordinate from aiTurn. Added gameloop logic so that you can actually play against AI now. Seems that at least easy mode is working, haven't had a chance to test other modes</t>
-  </si>
-  <si>
-    <t>Changed AI class to inherit Player so that functions aren't being recreated. Overwrote some functions from Player and GameObject to fit the AI better. Ship placement logic may be done but hasn't been tested and isn't optimized since it's always randomizing without knowledge of previous ship placements or board boundaries and instead error checks each time. Started to modify __take_turn() to take in coordinates from aiTurn but still needs a lot of attention. Waiting for Andrew to push comments on aiTurn function before I start messing with it so that merge conflicts are avoided</t>
-  </si>
-  <si>
-    <t>Cleaned some more code and implemented medium and hard difficulty for the AI</t>
-  </si>
-  <si>
-    <t>Made better transitions between Player -&gt; Player and Player -&gt; AI based off of input buffer instead of waiting. Spent a lot of time stress testing with different combinations of AI difficulties, ship amounts, ship directions, and super shot. Updated worklog to be up to date.</t>
+    <t xml:space="preserve">Andrew McFerrin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">started work on ai behavior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implemented super shot and added terminal clears so that players can't see each others' boards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed some logic in the medium difficulty ai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aiden Patel, Andrew McFerrin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talked through AI logic and improved some logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kai Achen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">added board construction and shooting functions to AI class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resolved some merge conflicts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landon Pyko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scanned through code. Helped Kai resolve conflicts. Started updating the worklog file. Planning to look at medium difficulty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added all comments to ai shooting behavior code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landon Pyko, Aiden Patel, Andrew McFerrin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussed ship difficulty logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changed AI class to inherit Player so that functions aren't being recreated. Overwrote some functions from Player and GameObject to fit the AI better. Ship placement logic may be done but hasn't been tested and isn't optimized since it's always randomizing without knowledge of previous ship placements or board boundaries and instead error checks each time. Started to modify __take_turn() to take in coordinates from aiTurn but still needs a lot of attention. Waiting for Andrew to push comments on aiTurn function before I start messing with it so that merge conflicts are avoided</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overwrote get_input in AI class to just return coordinate from aiTurn. Added gameloop logic so that you can actually play against AI now. Seems that at least easy mode is working, haven't had a chance to test other modes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleaned some more code and implemented medium and hard difficulty for the AI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Made better transitions between Player -&gt; Player and Player -&gt; AI based off of input buffer instead of waiting. Spent a lot of time stress testing with different combinations of AI difficulties, ship amounts, ship directions, and super shot. Updated worklog to be up to date.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Newman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intended to check that project meets requirements. It does as far as I could tell, minus documentation. Found some errors listed in general.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed some errors and changed some display code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">made documentation pdf, contains information on all py files in project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="166" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -166,230 +183,277 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border>
+  <borders count="9">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="13">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="0e2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="e8e8e8"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="e97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="196b24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="0f9ed5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="a02b93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="4ea72e"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="96607d"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -397,33 +461,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -436,13 +491,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -452,15 +501,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -468,7 +515,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -476,61 +522,37 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD21634D-05D0-4FC5-8519-ABDDC6FAB35E}">
-  <dimension ref="A1:F36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C68" activeCellId="0" sqref="C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.79296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,386 +572,534 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="2" t="n">
         <v>45558</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0" t="n">
         <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="2" t="n">
         <v>45558</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="2" t="n">
         <v>45560</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0" t="n">
         <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="2" t="n">
         <v>45560</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0" t="n">
         <v>30</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2">
-        <v>45560</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>45563</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2">
-        <v>45561</v>
-      </c>
-      <c r="D7">
+      <c r="C14" s="2" t="n">
+        <v>45563</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>30</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2">
-        <v>45561</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>30</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2">
-        <v>45561</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>40</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2">
-        <v>45561</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2">
-        <v>45561</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>35</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2">
-        <v>45562</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>40</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="F14" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="n">
         <v>45563</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="2">
-        <v>45563</v>
-      </c>
-      <c r="D14">
+      <c r="D15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2">
-        <v>45563</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
+      <c r="E15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2" t="n">
         <v>45563</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0" t="n">
         <v>30</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>45563</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="2">
-        <v>45563</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>45564</v>
+      </c>
+      <c r="D18" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="E18" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="2" t="n">
+        <v>45564</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>45564</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="2"/>
     </row>
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="4"/>
+      <c r="C60" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8" t="n">
+        <f aca="false" t="array" ref="D61:D61">INT(SUMPRODUCT((ISNUMBER(SEARCH(B61, B2:B58))) *  D2:D58) + SUMPRODUCT((ISNUMBER(SEARCH(B61, B2:B58))) * E2:E58)/60)</f>
+        <v>9</v>
+      </c>
+      <c r="E61" s="9" t="n">
+        <f aca="false" t="array" ref="E61:E61">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(B61, B2:B58))) *  D2:D58) + SUMPRODUCT((ISNUMBER(SEARCH(B61, B2:B58))) * E2:E58)/60, 1) * 60, 0)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8" t="n">
+        <f aca="false" t="array" ref="D62:D62">INT(SUMPRODUCT((ISNUMBER(SEARCH(B62, B2:B58))) *  D2:D58) + SUMPRODUCT((ISNUMBER(SEARCH(B62, B2:B58))) * E2:E58)/60)</f>
+        <v>7</v>
+      </c>
+      <c r="E62" s="9" t="n">
+        <f aca="false" t="array" ref="E62:E62">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(B62, B2:B58))) *  D2:D58) + SUMPRODUCT((ISNUMBER(SEARCH(B62, B2:B58))) * E2:E58)/60, 1) * 60, 0)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8" t="n">
+        <f aca="false" t="array" ref="D63:D63">INT(SUMPRODUCT((ISNUMBER(SEARCH(B63, B2:B58))) *  D2:D58) + SUMPRODUCT((ISNUMBER(SEARCH(B63, B2:B58))) * E2:E58)/60)</f>
+        <v>4</v>
+      </c>
+      <c r="E63" s="9" t="n">
+        <f aca="false" t="array" ref="E63:E63">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(B63, B2:B58))) *  D2:D58) + SUMPRODUCT((ISNUMBER(SEARCH(B63, B2:B58))) * E2:E58)/60, 1) * 60, 0)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8" t="n">
+        <f aca="false" t="array" ref="D64:D64">INT(SUMPRODUCT((ISNUMBER(SEARCH(B64, B2:B58))) *  D2:D58) + SUMPRODUCT((ISNUMBER(SEARCH(B64, B2:B58))) * E2:E58)/60)</f>
+        <v>1</v>
+      </c>
+      <c r="E64" s="9" t="n">
+        <f aca="false" t="array" ref="E64:E64">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(B64, B2:B58))) *  D2:D58) + SUMPRODUCT((ISNUMBER(SEARCH(B64, B2:B58))) * E2:E58)/60, 1) * 60, 0)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11" t="n">
+        <f aca="false" t="array" ref="D65:D65">INT(SUMPRODUCT((ISNUMBER(SEARCH(B65, B2:B58))) *  D2:D58) + SUMPRODUCT((ISNUMBER(SEARCH(B65, B2:B58))) * E2:E58)/60)</f>
+        <v>3</v>
+      </c>
+      <c r="E65" s="12" t="n">
+        <f aca="false" t="array" ref="E65:E65">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(B65, B2:B58))) *  D2:D58) + SUMPRODUCT((ISNUMBER(SEARCH(B65, B2:B58))) * E2:E58)/60, 1) * 60, 0)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D68" s="0" t="n">
+        <f aca="false">SUM(D$61:D$65,QUOTIENT(SUM(E$61:E$65),60))</f>
+        <v>27</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <f aca="false">MOD(SUM(E$61:E$65),60)</f>
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
